--- a/pages/植物档案.xlsx
+++ b/pages/植物档案.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
   <si>
     <t>中文名</t>
   </si>
@@ -142,6 +142,32 @@
     <t>39.991674,116.308628;39.992149,116.308641;39.992119,116.307637;39.991603,116.307637;39.991219,116.307636;39.993888,116.3096;39.987951,116.309634;39.990854,116.310115;</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>紫藤的茎左旋生长(从下往上向左旋转生长)，而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>多花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>紫藤则是向右转生长。</t>
+    </r>
+  </si>
+  <si>
     <t>多花紫藤</t>
   </si>
   <si>
@@ -230,6 +256,9 @@
   </si>
   <si>
     <t>39.989278,116.312111;39.989888,116.309278;39.995144,116.309114;39.994942,116.309055;</t>
+  </si>
+  <si>
+    <t>和金钟花很像</t>
   </si>
   <si>
     <t>蜡梅</t>
@@ -435,7 +464,7 @@
     <t>标本馆；广泛栽培；</t>
   </si>
   <si>
-    <t>39.992793,116.311788;</t>
+    <t>39.992793,116.311788;39.989618,116.30639;39.997649,116.309815;</t>
   </si>
   <si>
     <t>榆叶梅</t>
@@ -646,6 +675,9 @@
     <t>39.991072,116.309472;</t>
   </si>
   <si>
+    <t>和连翘很像</t>
+  </si>
+  <si>
     <t>德国鸢尾</t>
   </si>
   <si>
@@ -867,10 +899,301 @@
     <t>39.98998,116.307449;</t>
   </si>
   <si>
-    <t>蔷薇</t>
+    <t>多花蔷薇</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Rosa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>multiflora</t>
+    </r>
+  </si>
+  <si>
+    <t>蔷薇属</t>
+  </si>
+  <si>
+    <t>花期7月。</t>
   </si>
   <si>
     <t>39.989759,116.308444;</t>
+  </si>
+  <si>
+    <t>虞美人</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Papaver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>rhoeas</t>
+    </r>
+  </si>
+  <si>
+    <t>罂粟属</t>
+  </si>
+  <si>
+    <t>罂粟科</t>
+  </si>
+  <si>
+    <t>花果期3-8月。</t>
+  </si>
+  <si>
+    <t>电教西边花坛；</t>
+  </si>
+  <si>
+    <t>39.989751,116.311398;</t>
+  </si>
+  <si>
+    <t>菊花桃</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Amygdalus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>persica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>'Juhuatao'</t>
+    </r>
+  </si>
+  <si>
+    <t>花期3至4月。</t>
+  </si>
+  <si>
+    <t>桃</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Amygdalus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>persica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> L.</t>
+    </r>
+  </si>
+  <si>
+    <t>花期3-4月。</t>
+  </si>
+  <si>
+    <t>39.991337,116.308076;</t>
+  </si>
+  <si>
+    <t>白花重瓣麦李</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Cerasus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>glandulosa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> f. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>albo-plena</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> Koehne</t>
+    </r>
+  </si>
+  <si>
+    <t>快递点；</t>
+  </si>
+  <si>
+    <t>39.987269,116.310341;</t>
+  </si>
+  <si>
+    <t>白山桃</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="20"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Amygdalus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="20"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>davidiana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> f. </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="20"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>alba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> (Carr.) Rehd.</t>
+    </r>
+  </si>
+  <si>
+    <t>花期3-4月，果期7-8月。</t>
+  </si>
+  <si>
+    <t>国际关系学院；</t>
+  </si>
+  <si>
+    <t>39.991402,116.307244;</t>
   </si>
 </sst>
 </file>
@@ -880,7 +1203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -904,6 +1227,12 @@
     <font>
       <sz val="14"/>
       <color indexed="13"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="20"/>
+      <color indexed="14"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -1114,6 +1443,7 @@
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ff323232"/>
+      <rgbColor rgb="ff1399e7"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2175,7 +2505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -2193,7 +2523,7 @@
     <col min="9" max="9" width="35.6719" style="1" customWidth="1"/>
     <col min="10" max="10" width="43" style="1" customWidth="1"/>
     <col min="11" max="11" width="78.3516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.8672" style="1" customWidth="1"/>
     <col min="13" max="16384" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2243,7 +2573,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s" s="6">
         <v>14</v>
@@ -2335,7 +2665,7 @@
       </c>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" ht="14" customHeight="1">
+    <row r="5" ht="18.35" customHeight="1">
       <c r="A5" t="s" s="8">
         <v>35</v>
       </c>
@@ -2369,14 +2699,16 @@
       <c r="K5" t="s" s="11">
         <v>42</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" t="s" s="11">
+        <v>43</v>
+      </c>
     </row>
-    <row r="6" ht="14" customHeight="1">
+    <row r="6" ht="18.35" customHeight="1">
       <c r="A6" t="s" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="10">
         <v>2</v>
@@ -2400,31 +2732,33 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s" s="11">
-        <v>46</v>
-      </c>
-      <c r="L6" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="L6" t="s" s="11">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" ht="14" customHeight="1">
       <c r="A7" t="s" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
       </c>
       <c r="D7" t="s" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s" s="11">
         <v>17</v>
@@ -2433,28 +2767,28 @@
         <v>18</v>
       </c>
       <c r="I7" t="s" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K7" t="s" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L7" s="12"/>
     </row>
     <row r="8" ht="14" customHeight="1">
       <c r="A8" t="s" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
       </c>
       <c r="D8" t="s" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s" s="11">
         <v>31</v>
@@ -2469,30 +2803,30 @@
         <v>18</v>
       </c>
       <c r="I8" t="s" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
     <row r="9" ht="14" customHeight="1">
       <c r="A9" t="s" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" t="s" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s" s="11">
         <v>17</v>
@@ -2501,7 +2835,7 @@
         <v>18</v>
       </c>
       <c r="I9" t="s" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
@@ -2509,20 +2843,20 @@
     </row>
     <row r="10" ht="14" customHeight="1">
       <c r="A10" t="s" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" t="s" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s" s="11">
         <v>17</v>
@@ -2531,32 +2865,32 @@
         <v>18</v>
       </c>
       <c r="I10" t="s" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" t="s" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L10" s="12"/>
     </row>
     <row r="11" ht="14" customHeight="1">
       <c r="A11" t="s" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" s="10">
         <v>2</v>
       </c>
       <c r="D11" t="s" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s" s="11">
         <v>17</v>
@@ -2565,34 +2899,36 @@
         <v>18</v>
       </c>
       <c r="I11" t="s" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" t="s" s="11">
-        <v>72</v>
-      </c>
-      <c r="L11" s="12"/>
+        <v>73</v>
+      </c>
+      <c r="L11" t="s" s="11">
+        <v>74</v>
+      </c>
     </row>
     <row r="12" ht="14" customHeight="1">
       <c r="A12" t="s" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s" s="9">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" s="10">
         <v>0</v>
       </c>
       <c r="D12" t="s" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="11">
         <v>17</v>
@@ -2601,28 +2937,28 @@
         <v>18</v>
       </c>
       <c r="I12" t="s" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L12" s="12"/>
     </row>
     <row r="13" ht="14" customHeight="1">
       <c r="A13" t="s" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="10">
         <v>0</v>
       </c>
       <c r="D13" t="s" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s" s="11">
         <v>15</v>
@@ -2637,7 +2973,7 @@
         <v>18</v>
       </c>
       <c r="I13" t="s" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
@@ -2645,16 +2981,16 @@
     </row>
     <row r="14" ht="17.95" customHeight="1">
       <c r="A14" t="s" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s" s="9">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C14" s="10">
         <v>3</v>
       </c>
       <c r="D14" t="s" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s" s="11">
         <v>15</v>
@@ -2669,28 +3005,28 @@
         <v>18</v>
       </c>
       <c r="I14" t="s" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="12"/>
     </row>
     <row r="15" ht="17.95" customHeight="1">
       <c r="A15" t="s" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C15" s="10">
         <v>1</v>
       </c>
       <c r="D15" t="s" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s" s="11">
         <v>15</v>
@@ -2705,34 +3041,34 @@
         <v>18</v>
       </c>
       <c r="I15" t="s" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J15" t="s" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K15" t="s" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L15" s="12"/>
     </row>
     <row r="16" ht="17.95" customHeight="1">
       <c r="A16" t="s" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s" s="9">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C16" s="10">
         <v>1</v>
       </c>
       <c r="D16" t="s" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G16" t="s" s="11">
         <v>17</v>
@@ -2741,28 +3077,28 @@
         <v>18</v>
       </c>
       <c r="I16" t="s" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J16" t="s" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K16" t="s" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L16" s="12"/>
     </row>
     <row r="17" ht="17.95" customHeight="1">
       <c r="A17" t="s" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s" s="9">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C17" s="10">
         <v>1</v>
       </c>
       <c r="D17" t="s" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s" s="11">
         <v>38</v>
@@ -2777,22 +3113,22 @@
         <v>18</v>
       </c>
       <c r="I17" t="s" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J17" t="s" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K17" t="s" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L17" s="12"/>
     </row>
     <row r="18" ht="17.95" customHeight="1">
       <c r="A18" t="s" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s" s="9">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" t="s" s="11">
@@ -2811,28 +3147,28 @@
         <v>18</v>
       </c>
       <c r="I18" t="s" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J18" t="s" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K18" t="s" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L18" s="12"/>
     </row>
     <row r="19" ht="17.95" customHeight="1">
       <c r="A19" t="s" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s" s="9">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C19" s="10">
         <v>1</v>
       </c>
       <c r="D19" t="s" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s" s="11">
         <v>15</v>
@@ -2847,34 +3183,34 @@
         <v>18</v>
       </c>
       <c r="I19" t="s" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J19" t="s" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K19" t="s" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L19" s="12"/>
     </row>
     <row r="20" ht="17.95" customHeight="1">
       <c r="A20" t="s" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s" s="9">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
       </c>
       <c r="D20" t="s" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E20" t="s" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F20" t="s" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G20" t="s" s="11">
         <v>17</v>
@@ -2883,28 +3219,28 @@
         <v>18</v>
       </c>
       <c r="I20" t="s" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J20" t="s" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K20" t="s" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L20" s="12"/>
     </row>
     <row r="21" ht="17.95" customHeight="1">
       <c r="A21" t="s" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s" s="9">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C21" s="10">
         <v>2</v>
       </c>
       <c r="D21" t="s" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s" s="11">
         <v>15</v>
@@ -2919,19 +3255,19 @@
         <v>18</v>
       </c>
       <c r="I21" t="s" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J21" t="s" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K21" t="s" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L21" s="12"/>
     </row>
     <row r="22" ht="14" customHeight="1">
       <c r="A22" t="s" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
@@ -2942,31 +3278,31 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" t="s" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K22" t="s" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L22" s="12"/>
     </row>
     <row r="23" ht="17.95" customHeight="1">
       <c r="A23" t="s" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s" s="9">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C23" s="10">
         <v>0</v>
       </c>
       <c r="D23" t="s" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s" s="11">
         <v>17</v>
@@ -2975,34 +3311,36 @@
         <v>18</v>
       </c>
       <c r="I23" t="s" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J23" t="s" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K23" t="s" s="11">
-        <v>141</v>
-      </c>
-      <c r="L23" s="12"/>
+        <v>143</v>
+      </c>
+      <c r="L23" t="s" s="11">
+        <v>144</v>
+      </c>
     </row>
     <row r="24" ht="17.95" customHeight="1">
       <c r="A24" t="s" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s" s="9">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C24" s="10">
         <v>0</v>
       </c>
       <c r="D24" t="s" s="11">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E24" t="s" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F24" t="s" s="11">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G24" t="s" s="11">
         <v>27</v>
@@ -3011,28 +3349,28 @@
         <v>18</v>
       </c>
       <c r="I24" t="s" s="11">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J24" t="s" s="11">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K24" t="s" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L24" s="12"/>
     </row>
     <row r="25" ht="17.95" customHeight="1">
       <c r="A25" t="s" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s" s="9">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C25" s="10">
         <v>1</v>
       </c>
       <c r="D25" t="s" s="11">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E25" t="s" s="11">
         <v>15</v>
@@ -3047,34 +3385,34 @@
         <v>18</v>
       </c>
       <c r="I25" t="s" s="11">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J25" t="s" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K25" t="s" s="11">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L25" s="12"/>
     </row>
     <row r="26" ht="17.95" customHeight="1">
       <c r="A26" t="s" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B26" t="s" s="9">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C26" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E26" t="s" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F26" t="s" s="11">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G26" t="s" s="11">
         <v>17</v>
@@ -3083,28 +3421,28 @@
         <v>18</v>
       </c>
       <c r="I26" t="s" s="11">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J26" t="s" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K26" t="s" s="11">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L26" s="12"/>
     </row>
     <row r="27" ht="14" customHeight="1">
       <c r="A27" t="s" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="9">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C27" s="10">
         <v>2</v>
       </c>
       <c r="D27" t="s" s="11">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E27" t="s" s="11">
         <v>15</v>
@@ -3119,28 +3457,28 @@
         <v>18</v>
       </c>
       <c r="I27" t="s" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J27" t="s" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K27" t="s" s="11">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L27" s="12"/>
     </row>
     <row r="28" ht="14" customHeight="1">
       <c r="A28" t="s" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s" s="9">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C28" s="10">
         <v>0</v>
       </c>
       <c r="D28" t="s" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E28" t="s" s="11">
         <v>15</v>
@@ -3155,32 +3493,32 @@
         <v>18</v>
       </c>
       <c r="I28" t="s" s="11">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J28" t="s" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
     </row>
     <row r="29" ht="17.95" customHeight="1">
       <c r="A29" t="s" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s" s="9">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C29" s="10">
         <v>2</v>
       </c>
       <c r="D29" t="s" s="11">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E29" t="s" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s" s="11">
         <v>17</v>
@@ -3189,28 +3527,28 @@
         <v>18</v>
       </c>
       <c r="I29" t="s" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J29" t="s" s="11">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K29" t="s" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L29" s="12"/>
     </row>
     <row r="30" ht="14" customHeight="1">
       <c r="A30" t="s" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B30" t="s" s="9">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C30" s="10">
         <v>2</v>
       </c>
       <c r="D30" t="s" s="11">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E30" t="s" s="11">
         <v>31</v>
@@ -3225,47 +3563,239 @@
         <v>18</v>
       </c>
       <c r="I30" t="s" s="11">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J30" t="s" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K30" t="s" s="11">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L30" s="12"/>
     </row>
-    <row r="31" ht="14" customHeight="1">
+    <row r="31" ht="17.95" customHeight="1">
       <c r="A31" t="s" s="8">
-        <v>185</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
+        <v>188</v>
+      </c>
+      <c r="B31" t="s" s="9">
+        <v>189</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s" s="11">
+        <v>190</v>
+      </c>
+      <c r="E31" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s" s="11">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s" s="11">
+        <v>191</v>
+      </c>
       <c r="J31" s="12"/>
       <c r="K31" t="s" s="11">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L31" s="12"/>
     </row>
-    <row r="32" ht="14" customHeight="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
+    <row r="32" ht="17.95" customHeight="1">
+      <c r="A32" t="s" s="8">
+        <v>193</v>
+      </c>
+      <c r="B32" t="s" s="9">
+        <v>194</v>
+      </c>
+      <c r="C32" s="10">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s" s="11">
+        <v>195</v>
+      </c>
+      <c r="E32" t="s" s="11">
+        <v>196</v>
+      </c>
+      <c r="F32" t="s" s="11">
+        <v>126</v>
+      </c>
+      <c r="G32" t="s" s="11">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s" s="11">
+        <v>197</v>
+      </c>
+      <c r="J32" t="s" s="11">
+        <v>198</v>
+      </c>
+      <c r="K32" t="s" s="11">
+        <v>199</v>
+      </c>
       <c r="L32" s="12"/>
+    </row>
+    <row r="33" ht="17.95" customHeight="1">
+      <c r="A33" t="s" s="8">
+        <v>200</v>
+      </c>
+      <c r="B33" t="s" s="9">
+        <v>201</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s" s="11">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s" s="11">
+        <v>202</v>
+      </c>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+    </row>
+    <row r="34" ht="17.95" customHeight="1">
+      <c r="A34" t="s" s="8">
+        <v>203</v>
+      </c>
+      <c r="B34" t="s" s="9">
+        <v>204</v>
+      </c>
+      <c r="C34" s="10">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s" s="11">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s" s="11">
+        <v>205</v>
+      </c>
+      <c r="J34" t="s" s="11">
+        <v>171</v>
+      </c>
+      <c r="K34" t="s" s="11">
+        <v>206</v>
+      </c>
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" ht="17.95" customHeight="1">
+      <c r="A35" t="s" s="8">
+        <v>207</v>
+      </c>
+      <c r="B35" t="s" s="9">
+        <v>208</v>
+      </c>
+      <c r="C35" s="10">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s" s="11">
+        <v>132</v>
+      </c>
+      <c r="E35" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s" s="11">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s" s="11">
+        <v>205</v>
+      </c>
+      <c r="J35" t="s" s="11">
+        <v>209</v>
+      </c>
+      <c r="K35" t="s" s="11">
+        <v>210</v>
+      </c>
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" ht="26.75" customHeight="1">
+      <c r="A36" t="s" s="8">
+        <v>211</v>
+      </c>
+      <c r="B36" t="s" s="9">
+        <v>212</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s" s="11">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s" s="11">
+        <v>213</v>
+      </c>
+      <c r="J36" t="s" s="11">
+        <v>214</v>
+      </c>
+      <c r="K36" t="s" s="11">
+        <v>215</v>
+      </c>
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" ht="14" customHeight="1">
+      <c r="A37" s="14"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pages/植物档案.xlsx
+++ b/pages/植物档案.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/circle/Documents/GitHub/vegetation-pku/pages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C13B1FF-57ED-1E47-9891-C0D4994CC968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544ACFCC-F3F7-174A-A443-C5610F26F58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2560" yWindow="1940" windowWidth="30820" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2496,7 +2496,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
